--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail7 Features.xlsx
@@ -3162,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,29 +3173,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3216,115 +3214,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3341,72 +3329,66 @@
         <v>3.568234642741627e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.188691381320435</v>
+        <v>1.250632146411117e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3315024635296169</v>
+        <v>1.792076256046374e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.250632146411117e-06</v>
+        <v>0.03609917545581117</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.792076256046374e-06</v>
+        <v>0.09975599308303429</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03609917545581117</v>
+        <v>0.01125437063671455</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.09975599308303429</v>
+        <v>1.926407078069811</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01125437063671455</v>
+        <v>2.786114586803925</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.950007668480033</v>
+        <v>4.69957548393693</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.786114586803925</v>
+        <v>2.238933034789157e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.69957548393693</v>
+        <v>5649069486.389652</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.238933034789157e-17</v>
+        <v>2.138938107382462e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5649069486.389652</v>
+        <v>714.4879980007423</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.138938107382462e-08</v>
+        <v>0.0001165913935813535</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>714.4879980007423</v>
+        <v>9.604503256800042</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001165913935813535</v>
+        <v>1.202074732694856</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.604503256800042</v>
+        <v>0.01075514598378258</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.202074732694856</v>
+        <v>4.084676065182386</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01075514598378258</v>
+        <v>0.9624844810980714</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.084676065182386</v>
+        <v>1.00186252122746</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9624844810980714</v>
+        <v>103</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.00186252122746</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.660429289363551</v>
       </c>
     </row>
@@ -3421,72 +3403,66 @@
         <v>3.385354647369699e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.215848019905137</v>
+        <v>1.234097026958932e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.5378115008310673</v>
+        <v>1.804711725105031e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.234097026958932e-06</v>
+        <v>0.03655628823951688</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.804711725105031e-06</v>
+        <v>0.1056158035344027</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03655628823951688</v>
+        <v>0.01249092525935592</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1056158035344027</v>
+        <v>1.928456249096494</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01249092525935592</v>
+        <v>2.902653464658286</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.951932797816262</v>
+        <v>4.46883101045527</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.902653464658286</v>
+        <v>1.752535385590639e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.46883101045527</v>
+        <v>6962819733.889375</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.752535385590639e-17</v>
+        <v>1.727366008727675e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6962819733.889375</v>
+        <v>849.6442030205326</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.727366008727675e-08</v>
+        <v>9.287933551673204e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>849.6442030205326</v>
+        <v>8.648750925895119</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.287933551673204e-05</v>
+        <v>1.162983809878561</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.648750925895119</v>
+        <v>0.006947457198719036</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.162983809878561</v>
+        <v>4.419749726939536</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006947457198719036</v>
+        <v>0.964033415112694</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.419749726939536</v>
+        <v>1.030758961618053</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.964033415112694</v>
+        <v>126</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.030758961618053</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.221181911664815</v>
       </c>
     </row>
@@ -3501,72 +3477,66 @@
         <v>3.196869697769097e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.223167234766978</v>
+        <v>1.212594932709228e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7124260501598534</v>
+        <v>1.816801920266488e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.212594932709228e-06</v>
+        <v>0.0368694674491056</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.816801920266488e-06</v>
+        <v>0.11226623458137</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0368694674491056</v>
+        <v>0.01396273627848773</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.11226623458137</v>
+        <v>1.925639901998486</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01396273627848773</v>
+        <v>2.852958043885051</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.950240850674942</v>
+        <v>4.796996178766562</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.852958043885051</v>
+        <v>1.520953423273907e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.796996178766562</v>
+        <v>7957377597.817196</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.520953423273907e-17</v>
+        <v>1.510107230855031e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7957377597.817196</v>
+        <v>963.0655514259032</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.510107230855031e-08</v>
+        <v>8.237987785009606e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>963.0655514259032</v>
+        <v>6.71596200596077</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.237987785009606e-05</v>
+        <v>1.579123752006753</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.71596200596077</v>
+        <v>0.003715674010457539</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.579123752006753</v>
+        <v>4.662853781509429</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.003715674010457539</v>
+        <v>0.964188851969658</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.662853781509429</v>
+        <v>1.05802136548259</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.964188851969658</v>
+        <v>161</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.05802136548259</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.34777962461465</v>
       </c>
     </row>
@@ -3581,72 +3551,66 @@
         <v>3.005053857400603e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.203002998143145</v>
+        <v>1.184736471498052e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8266968592097887</v>
+        <v>1.828251459248366e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.184736471498052e-06</v>
+        <v>0.03691679900870656</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.828251459248366e-06</v>
+        <v>0.1197119708379417</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03691679900870656</v>
+        <v>0.01569315320579421</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1197119708379417</v>
+        <v>1.928665112213001</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01569315320579421</v>
+        <v>2.765616283228604</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.951880475384769</v>
+        <v>5.432319109411877</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.765616283228604</v>
+        <v>1.18599842520358e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.432319109411877</v>
+        <v>10283266447.25754</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.18599842520358e-17</v>
+        <v>1.168850723142027e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>10283266447.25754</v>
+        <v>1254.14078099054</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.168850723142027e-08</v>
+        <v>8.268811622299688e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1254.14078099054</v>
+        <v>6.558666449973852</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.268811622299688e-05</v>
+        <v>1.387555292958213</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.558666449973852</v>
+        <v>0.003556920739479926</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.387555292958213</v>
+        <v>4.630894907493141</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003556920739479926</v>
+        <v>0.9634660943033607</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.630894907493141</v>
+        <v>1.054442560105279</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9634660943033607</v>
+        <v>165</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.054442560105279</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.387958276369014</v>
       </c>
     </row>
@@ -3661,72 +3625,66 @@
         <v>2.813070008208896e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.146237488599086</v>
+        <v>1.149863800147857e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8419552253955258</v>
+        <v>1.838953737974881e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.149863800147857e-06</v>
+        <v>0.03657723693259227</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.838953737974881e-06</v>
+        <v>0.1278759566299962</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03657723693259227</v>
+        <v>0.01768891654510121</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1278759566299962</v>
+        <v>1.922560472392328</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01768891654510121</v>
+        <v>2.967756561884344</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.949852876481871</v>
+        <v>6.16485596611291</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.967756561884344</v>
+        <v>9.208921927574916e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.16485596611291</v>
+        <v>13139415767.28476</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.208921927574916e-18</v>
+        <v>9.144914584043566e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>13139415767.28476</v>
+        <v>1589.867389156588</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.144914584043566e-09</v>
+        <v>8.725002004452196e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1589.867389156588</v>
+        <v>7.679704532375963</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.725002004452196e-05</v>
+        <v>1.343271985136305</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.679704532375963</v>
+        <v>0.005145819615909037</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.343271985136305</v>
+        <v>4.580176259326048</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005145819615909037</v>
+        <v>0.9636255315081251</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.580176259326048</v>
+        <v>1.046662296277788</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9636255315081251</v>
+        <v>165</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.046662296277788</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.467706195745694</v>
       </c>
     </row>
@@ -3741,72 +3699,66 @@
         <v>2.625520718216304e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.044274404190815</v>
+        <v>1.105341442211028e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.7155835935802637</v>
+        <v>1.848778789747889e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.105341442211028e-06</v>
+        <v>0.03554901633884636</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.848778789747889e-06</v>
+        <v>0.1363944230249815</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03554901633884636</v>
+        <v>0.01986479350693708</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1363944230249815</v>
+        <v>1.923752025433037</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01986479350693708</v>
+        <v>3.34252070604192</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.949916923978267</v>
+        <v>6.196779341634867</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.34252070604192</v>
+        <v>9.697495170199178e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.196779341634867</v>
+        <v>12735833116.19993</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.697495170199178e-18</v>
+        <v>9.460476308522645e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>12735833116.19993</v>
+        <v>1572.947731074257</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.460476308522645e-09</v>
+        <v>8.820002480969172e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1572.947731074257</v>
+        <v>8.781613178100216</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.820002480969172e-05</v>
+        <v>1.217311901204271</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.781613178100216</v>
+        <v>0.006801697500105191</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.217311901204271</v>
+        <v>4.658755026644053</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006801697500105191</v>
+        <v>0.9651297769918619</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.658755026644053</v>
+        <v>1.041004135473766</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9651297769918619</v>
+        <v>138</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.041004135473766</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.805009498616168</v>
       </c>
     </row>
@@ -3821,72 +3773,66 @@
         <v>2.449295197930734e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.8949251904845363</v>
+        <v>1.048561491269166e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.4248483777638414</v>
+        <v>1.857553241793129e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.048561491269166e-06</v>
+        <v>0.03341769870149167</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.857553241793129e-06</v>
+        <v>0.1444142756374067</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03341769870149167</v>
+        <v>0.02196787995687183</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1444142756374067</v>
+        <v>1.926099138331048</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02196787995687183</v>
+        <v>2.909587404389306</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948887990808817</v>
+        <v>6.060658141934553</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.909587404389306</v>
+        <v>1.112060918318234e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.060658141934553</v>
+        <v>11490533393.2259</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.112060918318234e-17</v>
+        <v>1.054756126403438e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>11490533393.2259</v>
+        <v>1468.280249080348</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.054756126403438e-08</v>
+        <v>9.788748611614418e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1468.280249080348</v>
+        <v>9.736323835675345</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.788748611614418e-05</v>
+        <v>1.168105706806538</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.736323835675345</v>
+        <v>0.009279342313307458</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.168105706806538</v>
+        <v>4.602166696241656</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009279342313307458</v>
+        <v>0.9649594031763514</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.602166696241656</v>
+        <v>1.01114028517521</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9649594031763514</v>
+        <v>136</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.01114028517521</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.840511068106633</v>
       </c>
     </row>
@@ -3901,72 +3847,66 @@
         <v>2.292830404080074e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.7094716065271405</v>
+        <v>9.804510699530514e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.00194016794080154</v>
+        <v>1.865085079176696e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.804510699530514e-07</v>
+        <v>0.0299228600360578</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.865085079176696e-06</v>
+        <v>0.1508234477289178</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0299228600360578</v>
+        <v>0.02363654240838838</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1508234477289178</v>
+        <v>1.926394074128337</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02363654240838838</v>
+        <v>3.386715751640008</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.949770813370022</v>
+        <v>5.633646882598207</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.386715751640008</v>
+        <v>1.328797776340862e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.633646882598207</v>
+        <v>9669355056.842115</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.328797776340862e-17</v>
+        <v>1.251238193434923e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>9669355056.842115</v>
+        <v>1242.37844579477</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.251238193434923e-08</v>
+        <v>0.0001307462836151299</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1242.37844579477</v>
+        <v>9.29398429537061</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001307462836151299</v>
+        <v>1.384365475283203</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.29398429537061</v>
+        <v>0.01129362132437159</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.384365475283203</v>
+        <v>4.266369688272631</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01129362132437159</v>
+        <v>0.9648932143684588</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.266369688272631</v>
+        <v>0.9542218266106828</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9648932143684588</v>
+        <v>136</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9542218266106828</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.135991267645693</v>
       </c>
     </row>
@@ -3981,72 +3921,66 @@
         <v>2.163376760801984e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5132972498697224</v>
+        <v>9.051537680277059e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.4820017724273136</v>
+        <v>1.871233414727328e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.051537680277059e-07</v>
+        <v>0.02511017735099763</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.871233414727328e-06</v>
+        <v>0.1547480807693348</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02511017735099763</v>
+        <v>0.02456913105051447</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1547480807693348</v>
+        <v>1.929037419838502</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02456913105051447</v>
+        <v>2.91376154057388</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.952266792852487</v>
+        <v>5.743958256542625</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.91376154057388</v>
+        <v>1.347169928441026e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.743958256542625</v>
+        <v>9458336027.839539</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.347169928441026e-17</v>
+        <v>1.279391272770842e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>9458336027.839539</v>
+        <v>1205.179840185117</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.279391272770842e-08</v>
+        <v>0.0001351310685066715</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1205.179840185117</v>
+        <v>9.753960653937785</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001351310685066715</v>
+        <v>1.290877082493327</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.753960653937785</v>
+        <v>0.01285633586395941</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.290877082493327</v>
+        <v>4.160004844950825</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01285633586395941</v>
+        <v>0.9654841916533685</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.160004844950825</v>
+        <v>0.9398958156257066</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9654841916533685</v>
+        <v>125</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9398958156257066</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.130022575868343</v>
       </c>
     </row>
@@ -4061,72 +3995,66 @@
         <v>2.065283436113658e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3390458061976073</v>
+        <v>8.268572349460943e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9078664647164123</v>
+        <v>1.875932428431896e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.268572349460943e-07</v>
+        <v>0.01922932447289057</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.875932428431896e-06</v>
+        <v>0.1556833425467593</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01922932447289057</v>
+        <v>0.02459736659584565</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1556833425467593</v>
+        <v>1.939255195478821</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02459736659584565</v>
+        <v>2.969376931297305</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.95843831394251</v>
+        <v>5.025790297450754</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.969376931297305</v>
+        <v>1.395552341103972e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.025790297450754</v>
+        <v>9067586422.858248</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.395552341103972e-17</v>
+        <v>1.337616531462881e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>9067586422.858248</v>
+        <v>1147.438814388682</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.337616531462881e-08</v>
+        <v>0.0001140608404776315</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1147.438814388682</v>
+        <v>10.74123714632343</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001140608404776315</v>
+        <v>1.08337673140263</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.74123714632343</v>
+        <v>0.01315967541936537</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.08337673140263</v>
+        <v>4.330491728126145</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01315967541936537</v>
+        <v>0.9651301292503478</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.330491728126145</v>
+        <v>0.9603986335617287</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9651301292503478</v>
+        <v>116</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9603986335617287</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.777345070641717</v>
       </c>
     </row>
@@ -4141,72 +4069,66 @@
         <v>2.000099070270223e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2154959484885486</v>
+        <v>7.458266363217399e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.193556637008637</v>
+        <v>1.879159293806836e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.458266363217399e-07</v>
+        <v>0.01243243437649288</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.879159293806836e-06</v>
+        <v>0.1528881584549932</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01243243437649288</v>
+        <v>0.02351823261456355</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1528881584549932</v>
+        <v>1.939592487345775</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02351823261456355</v>
+        <v>3.033227410518409</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.959223230652594</v>
+        <v>4.885077982353812</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.033227410518409</v>
+        <v>1.740693921229255e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.885077982353812</v>
+        <v>7106969230.185672</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.740693921229255e-17</v>
+        <v>1.702252023508673e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>7106969230.185672</v>
+        <v>879.2072952696714</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.702252023508673e-08</v>
+        <v>0.0001006237608541086</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>879.2072952696714</v>
+        <v>10.68705068333064</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001006237608541086</v>
+        <v>1.026712396481838</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.68705068333064</v>
+        <v>0.01149254686186582</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.026712396481838</v>
+        <v>4.475291340136247</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01149254686186582</v>
+        <v>0.9644959588122523</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.475291340136247</v>
+        <v>0.96224030495837</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9644959588122523</v>
+        <v>94</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.96224030495837</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>4.160318799989235</v>
       </c>
     </row>
@@ -4221,72 +4143,66 @@
         <v>1.967154525320257e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.155625898502649</v>
+        <v>6.625194309792236e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.31655695085209</v>
+        <v>1.88089007248553e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.625194309792236e-07</v>
+        <v>0.00498310901884508</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.88089007248553e-06</v>
+        <v>0.1460556728396291</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.00498310901884508</v>
+        <v>0.02134503302773239</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1460556728396291</v>
+        <v>1.936344695130862</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02134503302773239</v>
+        <v>2.860061142901253</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.952499676159498</v>
+        <v>5.03836907559648</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.860061142901253</v>
+        <v>1.636384884239262e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.03836907559648</v>
+        <v>7349539811.727155</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.636384884239262e-17</v>
+        <v>1.642292660878234e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>7349539811.727155</v>
+        <v>883.9053299189429</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.642292660878234e-08</v>
+        <v>0.0001109414230615099</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>883.9053299189429</v>
+        <v>9.789286225866201</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001109414230615099</v>
+        <v>1.208627175972895</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.789286225866201</v>
+        <v>0.01063153041879804</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.208627175972895</v>
+        <v>4.46933819064661</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01063153041879804</v>
+        <v>0.9647251185515537</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.46933819064661</v>
+        <v>1.025762017377303</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9647251185515537</v>
+        <v>64</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.025762017377303</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.710541809275348</v>
       </c>
     </row>
@@ -4301,72 +4217,66 @@
         <v>1.962737608136369e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1481880425380858</v>
+        <v>6.108113090746869e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.330109765868182</v>
+        <v>1.881129535564677e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.108113090746869e-07</v>
+        <v>-0.002446614744606678</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.881129535564677e-06</v>
+        <v>0.1365294339755005</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.002446614744606678</v>
+        <v>0.01863555105920578</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1365294339755005</v>
+        <v>1.930997115307129</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01863555105920578</v>
+        <v>3.020020522496134</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.949985107844062</v>
+        <v>4.941535003049716</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.020020522496134</v>
+        <v>1.701146290635335e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.941535003049716</v>
+        <v>6960661897.000689</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.701146290635335e-17</v>
+        <v>1.732881583121427e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>6960661897.000689</v>
+        <v>824.2192258982071</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.732881583121427e-08</v>
+        <v>0.0001439601681149361</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>824.2192258982071</v>
+        <v>9.307002425709644</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001439601681149361</v>
+        <v>1.477313219520988</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.307002425709644</v>
+        <v>0.01246987210831092</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.477313219520988</v>
+        <v>4.121945836755618</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01246987210831092</v>
+        <v>0.9642617436340403</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.121945836755618</v>
+        <v>1.033573767973895</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9642617436340403</v>
+        <v>72</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.033573767973895</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>2.897265318888375</v>
       </c>
     </row>
@@ -4381,72 +4291,66 @@
         <v>1.980723544965396e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1670907837014473</v>
+        <v>6.172330032922712e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.310975001862034</v>
+        <v>1.87992741929422e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.172330032922712e-07</v>
+        <v>-0.009669376907944508</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.87992741929422e-06</v>
+        <v>0.1246398044384613</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.009669376907944508</v>
+        <v>0.01561783604761388</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1246398044384613</v>
+        <v>1.930746439546354</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01561783604761388</v>
+        <v>3.166367952208265</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.94934788712599</v>
+        <v>4.920101234399809</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.166367952208265</v>
+        <v>1.716000211387862e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.920101234399809</v>
+        <v>6941837624.132382</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.716000211387862e-17</v>
+        <v>1.740158277539495e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>6941837624.132382</v>
+        <v>826.9252225988382</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.740158277539495e-08</v>
+        <v>0.0001352364465960117</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>826.9252225988382</v>
+        <v>9.565387543371116</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001352364465960117</v>
+        <v>1.347062971964387</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.565387543371116</v>
+        <v>0.01237368031421246</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.347062971964387</v>
+        <v>4.010529526606317</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01237368031421246</v>
+        <v>0.9641960671695698</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.010529526606317</v>
+        <v>1.069439835680854</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9641960671695698</v>
+        <v>72</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.069439835680854</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>2.606415005378457</v>
       </c>
     </row>
@@ -4461,72 +4365,66 @@
         <v>2.01485191492128e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1873335710247251</v>
+        <v>6.226423763305107e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.308874829265456</v>
+        <v>1.877292424411682e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.226423763305107e-07</v>
+        <v>-0.01656337342484851</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.877292424411682e-06</v>
+        <v>0.110536827416781</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01656337342484851</v>
+        <v>0.01248271690303695</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.110536827416781</v>
+        <v>1.917331344962857</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01248271690303695</v>
+        <v>2.949920772374989</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.941289681157347</v>
+        <v>5.023648577891945</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.949920772374989</v>
+        <v>2.111097308181203e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.023648577891945</v>
+        <v>5607580724.347151</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.111097308181203e-17</v>
+        <v>2.14721399192339e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>5607580724.347151</v>
+        <v>663.8337374754651</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.14721399192339e-08</v>
+        <v>0.000107840638491175</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>663.8337374754651</v>
+        <v>9.489490626601548</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000107840638491175</v>
+        <v>1.143561300518838</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.489490626601548</v>
+        <v>0.009711096121284717</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.143561300518838</v>
+        <v>4.004183326849079</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009711096121284717</v>
+        <v>0.9640280651265928</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.004183326849079</v>
+        <v>1.082759289033461</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9640280651265928</v>
+        <v>72</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.082759289033461</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.726652474041567</v>
       </c>
     </row>
@@ -4541,72 +4439,66 @@
         <v>2.058160143228684e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1920957009558763</v>
+        <v>6.26297636335202e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.336661103194058</v>
+        <v>1.873270800358012e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.26297636335202e-07</v>
+        <v>-0.02269972695530444</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.873270800358012e-06</v>
+        <v>0.09571838818567238</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02269972695530444</v>
+        <v>0.009669221911527189</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09571838818567238</v>
+        <v>1.919658104631583</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009669221911527189</v>
+        <v>2.48638692461501</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.942383511466582</v>
+        <v>5.083648943548257</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.48638692461501</v>
+        <v>3.500233906221078e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.083648943548257</v>
+        <v>3422673866.999473</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.500233906221078e-17</v>
+        <v>3.519115237621391e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>3422673866.999473</v>
+        <v>410.0417753980989</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.519115237621391e-08</v>
+        <v>0.0001070705249867502</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>410.0417753980989</v>
+        <v>8.162459285407959</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001070705249867502</v>
+        <v>1.156149498490351</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.162459285407959</v>
+        <v>0.007133653129238427</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.156149498490351</v>
+        <v>3.910374849798999</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007133653129238427</v>
+        <v>0.9648436868900813</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.910374849798999</v>
+        <v>1.133185900888798</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9648436868900813</v>
+        <v>72</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.133185900888798</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>2.338798075323584</v>
       </c>
     </row>
@@ -4983,7 +4875,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.281560202457855</v>
+        <v>1.296949372730692</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.989461554650289</v>
@@ -5072,7 +4964,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.288055283244694</v>
+        <v>1.301741012750249</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.955669497830827</v>
@@ -5161,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.282337942720184</v>
+        <v>1.2965091576454</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.966703207378733</v>
@@ -5250,7 +5142,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.261780305788919</v>
+        <v>1.273169265905223</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.948880943674762</v>
@@ -5339,7 +5231,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.280693339468681</v>
+        <v>1.293805485664808</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.015705668327546</v>
@@ -5428,7 +5320,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.274241665632835</v>
+        <v>1.283656376653031</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.028185890417821</v>
@@ -5517,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.270035523238045</v>
+        <v>1.279922318555411</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.996414635385682</v>
@@ -5606,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.269975802500203</v>
+        <v>1.279388253489446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.922219292178816</v>
@@ -5695,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.257657700135075</v>
+        <v>1.265500377447968</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001356016174417</v>
@@ -5784,7 +5676,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.266859564343214</v>
+        <v>1.271069681997117</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.892368483304276</v>
@@ -5873,7 +5765,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.257529194275139</v>
+        <v>1.26159470648384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.902575644217354</v>
@@ -5962,7 +5854,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.249245394137078</v>
+        <v>1.255126800396104</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.888986923129209</v>
@@ -6051,7 +5943,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.254240425372105</v>
+        <v>1.260844635811197</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.823236432083676</v>
@@ -6140,7 +6032,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.258257931684203</v>
+        <v>1.266667951964831</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.857137312797595</v>
@@ -6229,7 +6121,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.250606896060105</v>
+        <v>1.260996003151298</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.85045322888577</v>
@@ -6318,7 +6210,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.241300955128102</v>
+        <v>1.252031514480024</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.80394751521412</v>
@@ -6407,7 +6299,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.234187450452739</v>
+        <v>1.244546150312909</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.802639080002368</v>
@@ -6496,7 +6388,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.239326064553395</v>
+        <v>1.249637719652943</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.75053084134118</v>
@@ -6585,7 +6477,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.277949994899115</v>
+        <v>1.291358462158611</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.070517894150452</v>
@@ -6674,7 +6566,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.31622687964449</v>
+        <v>1.3298802986846</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.306107133072917</v>
@@ -6763,7 +6655,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.330311210156923</v>
+        <v>1.351338152423984</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.177370929087439</v>
@@ -6852,7 +6744,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.339424941760305</v>
+        <v>1.355640530399568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.23508635820565</v>
@@ -6941,7 +6833,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.350859255028558</v>
+        <v>1.369854581240324</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.134243033410044</v>
@@ -7030,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.379798852800112</v>
+        <v>1.401368343687327</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.459934865422365</v>
@@ -7119,7 +7011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.404862411486698</v>
+        <v>1.425517338432871</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.441458926094924</v>
@@ -7208,7 +7100,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.434184891222065</v>
+        <v>1.4553741752313</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.403151390675336</v>
@@ -7297,7 +7189,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.420883527783996</v>
+        <v>1.442874302179631</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.465625906582383</v>
@@ -7386,7 +7278,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.431590170106326</v>
+        <v>1.454323054453377</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.448120785619478</v>
@@ -7475,7 +7367,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.421658259034151</v>
+        <v>1.443340186948776</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.380737805140138</v>
@@ -7564,7 +7456,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.45454380000222</v>
+        <v>1.472778259207919</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.308305034578719</v>
@@ -7653,7 +7545,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.428494767514407</v>
+        <v>1.452141106595494</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.299860500510538</v>
@@ -7742,7 +7634,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.453043121755686</v>
+        <v>1.475824360869397</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.317612794059129</v>
@@ -7831,7 +7723,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.447041597048875</v>
+        <v>1.471167369882336</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.365638450416294</v>
@@ -7920,7 +7812,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.46478868239177</v>
+        <v>1.486376908708178</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.374672848743107</v>
@@ -8009,7 +7901,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.445415092590172</v>
+        <v>1.461248028007574</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.24065063344107</v>
@@ -8098,7 +7990,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.446197581276183</v>
+        <v>1.464906028927971</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.458827791369674</v>
@@ -8187,7 +8079,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.491058373630775</v>
+        <v>1.507376594218801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.454519367523428</v>
@@ -8276,7 +8168,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.496559799156952</v>
+        <v>1.505118054593971</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.453814905227487</v>
@@ -8365,7 +8257,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.469761098392999</v>
+        <v>1.488372502268994</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.552412922219702</v>
@@ -8454,7 +8346,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.459977438885411</v>
+        <v>1.481246524419088</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.59666145945666</v>
@@ -8543,7 +8435,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.460371807876213</v>
+        <v>1.478092943481312</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.554155723119466</v>
@@ -8632,7 +8524,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.465097696129947</v>
+        <v>1.48119045692884</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.493870299050671</v>
@@ -8721,7 +8613,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.433966974675109</v>
+        <v>1.447923086165674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.204350336087282</v>
@@ -8810,7 +8702,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.481103121526953</v>
+        <v>1.496906532437866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.353328917424854</v>
@@ -8899,7 +8791,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.493309245183393</v>
+        <v>1.504073411488787</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.098896886238855</v>
@@ -8988,7 +8880,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.52108700580692</v>
+        <v>1.521477307511067</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.320868783893792</v>
@@ -9077,7 +8969,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.491375815526875</v>
+        <v>1.494747894424805</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.523604477533624</v>
@@ -9166,7 +9058,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.486437276099938</v>
+        <v>1.488165220669417</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.502411407030436</v>
@@ -9255,7 +9147,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.454113888692847</v>
+        <v>1.458842601840024</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.483503817697425</v>
@@ -9344,7 +9236,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.47612957899223</v>
+        <v>1.47379168274878</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.39666369143038</v>
@@ -9433,7 +9325,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.445175341373431</v>
+        <v>1.452677937684764</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.561051374139956</v>
@@ -9522,7 +9414,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.44770510890306</v>
+        <v>1.456912071165034</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.506937193641804</v>
@@ -9611,7 +9503,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.43174460835938</v>
+        <v>1.441888422955224</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.547219262439149</v>
@@ -9700,7 +9592,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.440614941669156</v>
+        <v>1.446211672520448</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.583494299138718</v>
@@ -9789,7 +9681,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.438995246018028</v>
+        <v>1.44805135059849</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.499320954371169</v>
@@ -9878,7 +9770,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.442041222147125</v>
+        <v>1.454063297985253</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.61207043996839</v>
@@ -9967,7 +9859,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.445757236022313</v>
+        <v>1.455049922874186</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.332540558575348</v>
@@ -10056,7 +9948,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.463150554918391</v>
+        <v>1.477639296381192</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.785188468153097</v>
@@ -10145,7 +10037,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.431170931132336</v>
+        <v>1.449501275713722</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.749658646097039</v>
@@ -10234,7 +10126,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.431240925325374</v>
+        <v>1.452992333608661</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.679105502431905</v>
@@ -10323,7 +10215,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.422995029166515</v>
+        <v>1.44788638393262</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.587490746757906</v>
@@ -10609,7 +10501,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.364527079771775</v>
+        <v>1.348862278681207</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.273740143381934</v>
@@ -10698,7 +10590,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.336243838038606</v>
+        <v>1.317993825216271</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.296399753131261</v>
@@ -10787,7 +10679,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.332006660680803</v>
+        <v>1.315201781469499</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.269196616253273</v>
@@ -10876,7 +10768,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.332657237185908</v>
+        <v>1.318184372806718</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.255171410400477</v>
@@ -10965,7 +10857,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.344124753921708</v>
+        <v>1.325743976676193</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.240231061704337</v>
@@ -11054,7 +10946,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.346120682852375</v>
+        <v>1.331347104770919</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.186391388640966</v>
@@ -11143,7 +11035,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.34525201086437</v>
+        <v>1.329342813958386</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.236374573995139</v>
@@ -11232,7 +11124,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.353818282114962</v>
+        <v>1.334019853116405</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.218627518964584</v>
@@ -11321,7 +11213,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.344268166021327</v>
+        <v>1.32516976270625</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.259630043451473</v>
@@ -11410,7 +11302,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.348909479546934</v>
+        <v>1.32163080256136</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.372131028229973</v>
@@ -11499,7 +11391,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.352064163119191</v>
+        <v>1.322009303548273</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.089065354237223</v>
@@ -11588,7 +11480,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.35206490774341</v>
+        <v>1.323745586026536</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.20958771906486</v>
@@ -11677,7 +11569,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.351353413474849</v>
+        <v>1.323564249716631</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.143558651786652</v>
@@ -11766,7 +11658,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.350178269678241</v>
+        <v>1.324622453499751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.23062849279123</v>
@@ -11855,7 +11747,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.32922971288345</v>
+        <v>1.312581112776466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.226126396958466</v>
@@ -11944,7 +11836,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.335814067326317</v>
+        <v>1.318324929055539</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.08622854643872</v>
@@ -12033,7 +11925,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.321993255322739</v>
+        <v>1.305908473074472</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.285954842856146</v>
@@ -12122,7 +12014,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.324191678772249</v>
+        <v>1.305579383790328</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.269608500258032</v>
@@ -12211,7 +12103,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.314900719577555</v>
+        <v>1.295071675419941</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.251152582666414</v>
@@ -12300,7 +12192,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.331405589180389</v>
+        <v>1.310521035189941</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.207074614572555</v>
@@ -12389,7 +12281,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.339546333073215</v>
+        <v>1.314795183391132</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.412790401958169</v>
@@ -12478,7 +12370,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.339411231580168</v>
+        <v>1.318285087228528</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.352463691247741</v>
@@ -12567,7 +12459,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.332888528767032</v>
+        <v>1.31813411691847</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.419735568612142</v>
@@ -12656,7 +12548,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.331513396386555</v>
+        <v>1.321220515358404</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.262022080405145</v>
@@ -12745,7 +12637,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.30255621441834</v>
+        <v>1.29303453414227</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.180212712227917</v>
@@ -12834,7 +12726,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.293060808855597</v>
+        <v>1.287654462832006</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.242819040854319</v>
@@ -12923,7 +12815,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.280115793922503</v>
+        <v>1.274637517702951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.181327650209745</v>
@@ -13012,7 +12904,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.275847987607619</v>
+        <v>1.270403256357453</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.180853499983459</v>
@@ -13101,7 +12993,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.280089356317776</v>
+        <v>1.276872526420665</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.284190521739468</v>
@@ -13190,7 +13082,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.299916358520582</v>
+        <v>1.296936995598665</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.132699821066894</v>
@@ -13279,7 +13171,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.301396997103894</v>
+        <v>1.298697472851984</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.134193268781246</v>
@@ -13368,7 +13260,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.313286714527638</v>
+        <v>1.313756695679163</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.074592122068188</v>
@@ -13457,7 +13349,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.309648986268559</v>
+        <v>1.307298805983636</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.18553550304345</v>
@@ -13546,7 +13438,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.314753223819956</v>
+        <v>1.312233320009767</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.116691144367772</v>
@@ -13635,7 +13527,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.311038692647565</v>
+        <v>1.301274353596408</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.091409695110691</v>
@@ -13724,7 +13616,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.302249739695073</v>
+        <v>1.298411338516604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.209126716233974</v>
@@ -13813,7 +13705,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.311360659160454</v>
+        <v>1.308484032963465</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.175121847726002</v>
@@ -13902,7 +13794,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.312348157724671</v>
+        <v>1.304132510513861</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.045902100715978</v>
@@ -13991,7 +13883,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.303812122321201</v>
+        <v>1.296857362410704</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.175169825480927</v>
@@ -14080,7 +13972,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.348988902996196</v>
+        <v>1.342628468278944</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.929534720759838</v>
@@ -14169,7 +14061,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.362556812685635</v>
+        <v>1.358318601743692</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.195005812639681</v>
@@ -14258,7 +14150,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.355383516195587</v>
+        <v>1.353700919996769</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.333590995445359</v>
@@ -14347,7 +14239,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.364852140313526</v>
+        <v>1.352334979342238</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.312096692023876</v>
@@ -14436,7 +14328,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.357628650351854</v>
+        <v>1.356137791963023</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.303389906744332</v>
@@ -14525,7 +14417,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.356797414714443</v>
+        <v>1.351655623800215</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.345613085792903</v>
@@ -14614,7 +14506,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.316063253512336</v>
+        <v>1.283709818376698</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.601200289518733</v>
@@ -14703,7 +14595,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.276732184131233</v>
+        <v>1.264774444579856</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.600078999129217</v>
@@ -14792,7 +14684,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.297313502027215</v>
+        <v>1.2957353374663</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.634317266040326</v>
@@ -14881,7 +14773,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.245722639023664</v>
+        <v>1.234766960994603</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.655453571718619</v>
@@ -14970,7 +14862,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.239945731690412</v>
+        <v>1.229105998116353</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.659632735101205</v>
@@ -15059,7 +14951,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.230824232996831</v>
+        <v>1.221159396578264</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.674634923037924</v>
@@ -15148,7 +15040,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.234435777244811</v>
+        <v>1.226994943931154</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.676851861726701</v>
@@ -15237,7 +15129,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.242873359016609</v>
+        <v>1.234939904004848</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.663707012486676</v>
@@ -15326,7 +15218,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.24364689618996</v>
+        <v>1.234888877993093</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.678712080874798</v>
@@ -15415,7 +15307,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.248343474370787</v>
+        <v>1.242065409869171</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.692151862268217</v>
@@ -15504,7 +15396,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.249944161960088</v>
+        <v>1.244415094149558</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.692840445018021</v>
@@ -15593,7 +15485,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.262650136232333</v>
+        <v>1.255116907326987</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.676070916749547</v>
@@ -15682,7 +15574,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.26940313708175</v>
+        <v>1.260354124316084</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.661716392456295</v>
@@ -15771,7 +15663,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.257653565851144</v>
+        <v>1.247112558011503</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.697281568312555</v>
@@ -15860,7 +15752,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.257397339065111</v>
+        <v>1.247304209648627</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.672618935895883</v>
@@ -15949,7 +15841,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.289783015708059</v>
+        <v>1.288920172384689</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.795245826186587</v>
@@ -16235,7 +16127,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.754016683630932</v>
+        <v>1.744256180195817</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.876776034977511</v>
@@ -16324,7 +16216,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.738612296501409</v>
+        <v>1.735634390755002</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.981004203460116</v>
@@ -16413,7 +16305,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.717978142023686</v>
+        <v>1.721084383125246</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.900472138137093</v>
@@ -16502,7 +16394,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.709127288504054</v>
+        <v>1.718323301908732</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.852158888575731</v>
@@ -16591,7 +16483,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.69932888512349</v>
+        <v>1.712870488421163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.856626084869934</v>
@@ -16680,7 +16572,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.688879892902341</v>
+        <v>1.703967426292039</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.911364382951231</v>
@@ -16769,7 +16661,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.693578182021362</v>
+        <v>1.708016128231491</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.77988744452691</v>
@@ -16858,7 +16750,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.689400054589627</v>
+        <v>1.701527245818542</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.713217083482324</v>
@@ -16947,7 +16839,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688247321414437</v>
+        <v>1.698841681638708</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.805202302277026</v>
@@ -17036,7 +16928,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675273726997905</v>
+        <v>1.685779047593812</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.626427014403087</v>
@@ -17125,7 +17017,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.664066138340665</v>
+        <v>1.671223337042391</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.6972873314767</v>
@@ -17214,7 +17106,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.643814964375613</v>
+        <v>1.64735358050351</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.516475859095405</v>
@@ -17303,7 +17195,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.647426068697742</v>
+        <v>1.648301052876703</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.530652910204719</v>
@@ -17392,7 +17284,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636911904957221</v>
+        <v>1.633463349798419</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.522058461289916</v>
@@ -17481,7 +17373,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.621983859473367</v>
+        <v>1.617985610220489</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.460339564942554</v>
@@ -17570,7 +17462,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.619778250408117</v>
+        <v>1.620251007450692</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.232345726157554</v>
@@ -17659,7 +17551,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.615723127649785</v>
+        <v>1.617688180340229</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.371294545881494</v>
@@ -17748,7 +17640,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616954082241926</v>
+        <v>1.617448997470077</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.262789107743735</v>
@@ -17837,7 +17729,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625330557721079</v>
+        <v>1.615010321649145</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.387861127570782</v>
@@ -17926,7 +17818,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645528112003904</v>
+        <v>1.626624975707011</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.002903777438745</v>
@@ -18015,7 +17907,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.663901814605415</v>
+        <v>1.639690075132016</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.971312394136766</v>
@@ -18104,7 +17996,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.673694449332698</v>
+        <v>1.646729653242752</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.926268303755205</v>
@@ -18193,7 +18085,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.664634350529014</v>
+        <v>1.639898741630052</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.011692960311112</v>
@@ -18282,7 +18174,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.674222716012884</v>
+        <v>1.648437613978277</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.20194102001003</v>
@@ -18371,7 +18263,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.681237908792108</v>
+        <v>1.64815786885966</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.004627614046115</v>
@@ -18460,7 +18352,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689185707092713</v>
+        <v>1.652713020326986</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.812109023599614</v>
@@ -18549,7 +18441,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695348699577793</v>
+        <v>1.661090524740333</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.003903921480226</v>
@@ -18638,7 +18530,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.70093097476267</v>
+        <v>1.667818441316903</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.970489849995781</v>
@@ -18727,7 +18619,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.69073363972963</v>
+        <v>1.658999495003418</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.003512397328258</v>
@@ -18816,7 +18708,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709586001706259</v>
+        <v>1.674984309197498</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.824003606638999</v>
@@ -18905,7 +18797,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.703316410313735</v>
+        <v>1.674961728871471</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.879394269460126</v>
@@ -18994,7 +18886,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.71588142254189</v>
+        <v>1.685698622231588</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.851820453284628</v>
@@ -19083,7 +18975,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.722381671045783</v>
+        <v>1.694519693572965</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.089685269325706</v>
@@ -19172,7 +19064,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.725828532097079</v>
+        <v>1.698389037388021</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.150834228778616</v>
@@ -19261,7 +19153,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.713873716176632</v>
+        <v>1.68966922867615</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.13232016752662</v>
@@ -19350,7 +19242,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.714182859716782</v>
+        <v>1.691167603419084</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.016717645897971</v>
@@ -19439,7 +19331,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.710524174236499</v>
+        <v>1.685916963357078</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.069401230818882</v>
@@ -19528,7 +19420,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.72734731467592</v>
+        <v>1.692309738294776</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.728840510871408</v>
@@ -19617,7 +19509,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.718999362443965</v>
+        <v>1.690245599726189</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.087591293615133</v>
@@ -19706,7 +19598,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.724852452019566</v>
+        <v>1.695271088807178</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.871297801704805</v>
@@ -19795,7 +19687,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.730615994902327</v>
+        <v>1.705334445172791</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.805493829756219</v>
@@ -19884,7 +19776,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.734327419518706</v>
+        <v>1.708354096148788</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.271298490441076</v>
@@ -19973,7 +19865,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.718732580960297</v>
+        <v>1.695145062388034</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.060307770954086</v>
@@ -20062,7 +19954,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.746139077943546</v>
+        <v>1.718994031986127</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.255526563651832</v>
@@ -20151,7 +20043,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.75156036799505</v>
+        <v>1.72778310831112</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.795197292859719</v>
@@ -20240,7 +20132,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.750766236185569</v>
+        <v>1.715511939261342</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.902072735659465</v>
@@ -20329,7 +20221,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.711676580619547</v>
+        <v>1.692320632638761</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.896744639670961</v>
@@ -20418,7 +20310,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.710567379651103</v>
+        <v>1.692967058412655</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.961705910467165</v>
@@ -20507,7 +20399,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.690525165430716</v>
+        <v>1.672536239538359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.853359089877068</v>
@@ -20596,7 +20488,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.675065874933505</v>
+        <v>1.657647994767492</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.984681489603071</v>
@@ -20685,7 +20577,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.662308887722191</v>
+        <v>1.654675948014962</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.148584501169125</v>
@@ -20774,7 +20666,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.667590933828961</v>
+        <v>1.658140632810097</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.11173217110975</v>
@@ -20863,7 +20755,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.657831629412284</v>
+        <v>1.654058926078269</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.257963786287467</v>
@@ -20952,7 +20844,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666507094310319</v>
+        <v>1.659428135512379</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.286027545622463</v>
@@ -21041,7 +20933,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.666886301147054</v>
+        <v>1.660496241744458</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.233489998078722</v>
@@ -21130,7 +21022,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.670273782896373</v>
+        <v>1.666761512639099</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.113582148092045</v>
@@ -21219,7 +21111,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.672674598696315</v>
+        <v>1.669648155925297</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.206058389340306</v>
@@ -21308,7 +21200,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.687507402682695</v>
+        <v>1.684626473165495</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.257506166815048</v>
@@ -21397,7 +21289,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.65991141117</v>
+        <v>1.661720490462298</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.111003003844028</v>
@@ -21486,7 +21378,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.655489594888058</v>
+        <v>1.658809549281353</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.187075886213632</v>
@@ -21575,7 +21467,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.665730290422452</v>
+        <v>1.67023797795007</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.930789419256764</v>
@@ -21861,7 +21753,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.319195637620576</v>
+        <v>1.332065523263199</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.066240287860696</v>
@@ -21950,7 +21842,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312486847259781</v>
+        <v>1.324191267505386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.025501908673167</v>
@@ -22039,7 +21931,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.315355859919034</v>
+        <v>1.327099134139433</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.077307827621639</v>
@@ -22128,7 +22020,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.337485895289902</v>
+        <v>1.348454021626873</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.976592919652856</v>
@@ -22217,7 +22109,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.376708333391274</v>
+        <v>1.385524120986895</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.056526616522459</v>
@@ -22306,7 +22198,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.373103834548883</v>
+        <v>1.381903401544783</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.051087378478485</v>
@@ -22395,7 +22287,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.373273677542873</v>
+        <v>1.379119494167083</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.134316987865186</v>
@@ -22484,7 +22376,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.409143097183381</v>
+        <v>1.409904435836697</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.102171878624818</v>
@@ -22573,7 +22465,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.432807423436986</v>
+        <v>1.427012663180022</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.021462123636783</v>
@@ -22662,7 +22554,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.431783341351869</v>
+        <v>1.427036228068979</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.868476874984773</v>
@@ -22751,7 +22643,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.408687869892569</v>
+        <v>1.402545081700537</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.910070115390851</v>
@@ -22840,7 +22732,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402008301122647</v>
+        <v>1.389243900486927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.960891892992879</v>
@@ -22929,7 +22821,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.447169212293179</v>
+        <v>1.427667633066589</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.51762321361025</v>
@@ -23018,7 +22910,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.45227467088968</v>
+        <v>1.434569673964494</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.427595458592532</v>
@@ -23107,7 +22999,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.42932364117899</v>
+        <v>1.426744787588448</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.420017905655067</v>
@@ -23196,7 +23088,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.421700305619112</v>
+        <v>1.419045291856374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.582107569697793</v>
@@ -23285,7 +23177,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.420883031347203</v>
+        <v>1.415922326824673</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.636791092994456</v>
@@ -23374,7 +23266,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.414681364914545</v>
+        <v>1.412440015444264</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.6191391059949</v>
@@ -23463,7 +23355,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.36830474029792</v>
+        <v>1.367873879795672</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.48149701233237</v>
@@ -23552,7 +23444,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.363724736527179</v>
+        <v>1.362994169064331</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.414923323380127</v>
@@ -23641,7 +23533,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.376194667304332</v>
+        <v>1.37946218171782</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.606931408682613</v>
@@ -23730,7 +23622,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.379495952908546</v>
+        <v>1.385324347776619</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.374987404564712</v>
@@ -23819,7 +23711,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.393740043054172</v>
+        <v>1.398911736734224</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.290431316681549</v>
@@ -23908,7 +23800,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.421115657700135</v>
+        <v>1.430148026145815</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.598065061478585</v>
@@ -23997,7 +23889,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.419160208589139</v>
+        <v>1.425987946740944</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.492038845186551</v>
@@ -24086,7 +23978,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.426743820576729</v>
+        <v>1.429076309967494</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.580375921269851</v>
@@ -24175,7 +24067,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.416018535565424</v>
+        <v>1.41723333905865</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.5286040804824</v>
@@ -24264,7 +24156,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.407713464010478</v>
+        <v>1.413102252582963</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.483818119478191</v>
@@ -24353,7 +24245,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.413231143282169</v>
+        <v>1.416999055233484</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.538156970700815</v>
@@ -24442,7 +24334,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.445116486703337</v>
+        <v>1.442106489555379</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.368885820720569</v>
@@ -24531,7 +24423,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.43814604918299</v>
+        <v>1.433920898386389</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.398607556915096</v>
@@ -24620,7 +24512,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.465119169006354</v>
+        <v>1.458062370831245</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.314579261998731</v>
@@ -24709,7 +24601,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.46586948400496</v>
+        <v>1.454722909915467</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.462409807192554</v>
@@ -24798,7 +24690,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.459791645139088</v>
+        <v>1.454232380607186</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.333341201534963</v>
@@ -24887,7 +24779,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459957617039553</v>
+        <v>1.45157005519098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.339453022322469</v>
@@ -24976,7 +24868,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.466110498663945</v>
+        <v>1.456162039569428</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.473484420519274</v>
@@ -25065,7 +24957,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.49676075492538</v>
+        <v>1.479611918638507</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.286393472678167</v>
@@ -25154,7 +25046,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.51096736511144</v>
+        <v>1.489742137727032</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.263193347868607</v>
@@ -25243,7 +25135,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.482153857785525</v>
+        <v>1.457920065615352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.41967765408622</v>
@@ -25332,7 +25224,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50257035404373</v>
+        <v>1.479075945461685</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.273737460079102</v>
@@ -25421,7 +25313,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.492965895623092</v>
+        <v>1.474934546439438</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.467914743931182</v>
@@ -25510,7 +25402,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.490628556116923</v>
+        <v>1.470625592976117</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.588972621896232</v>
@@ -25599,7 +25491,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.484970752144675</v>
+        <v>1.459825867455597</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.702725903500208</v>
@@ -25688,7 +25580,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.486065658303931</v>
+        <v>1.474660866062792</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.247442584044895</v>
@@ -25777,7 +25669,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.508000610597112</v>
+        <v>1.503267650367747</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.396667714131736</v>
@@ -25866,7 +25758,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.490875583134405</v>
+        <v>1.489953481366581</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.327113220858304</v>
@@ -25955,7 +25847,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.493249904238373</v>
+        <v>1.492558968545515</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.42521809763447</v>
@@ -26044,7 +25936,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.508202248085084</v>
+        <v>1.503814190298967</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.262546250611585</v>
@@ -26133,7 +26025,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.504495974858997</v>
+        <v>1.498665347703248</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.509233792434407</v>
@@ -26222,7 +26114,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.510433697141438</v>
+        <v>1.502856007714259</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.472123654080331</v>
@@ -26311,7 +26203,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.496097846466454</v>
+        <v>1.488951833289404</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.552533998555161</v>
@@ -26400,7 +26292,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.501991145672424</v>
+        <v>1.497833768974961</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.571952280618569</v>
@@ -26489,7 +26381,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.496752539563425</v>
+        <v>1.495876517625831</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.415184660526057</v>
@@ -26578,7 +26470,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.51360515492544</v>
+        <v>1.512917059881283</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.506532728938646</v>
@@ -26667,7 +26559,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.508542303123927</v>
+        <v>1.507958230828102</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.589660817021579</v>
@@ -26756,7 +26648,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.520521587595416</v>
+        <v>1.513874718615752</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.586988892123482</v>
@@ -26845,7 +26737,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.513510308478359</v>
+        <v>1.514095476158379</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.471284876414852</v>
@@ -26934,7 +26826,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.531097034957999</v>
+        <v>1.529812920191584</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.484673167145324</v>
@@ -27023,7 +26915,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.528604772488846</v>
+        <v>1.525443719530208</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.524335529114603</v>
@@ -27112,7 +27004,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.51660650385404</v>
+        <v>1.509375919690288</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.608614882979234</v>
@@ -27201,7 +27093,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553695622881506</v>
+        <v>1.537234271846738</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.529802284099515</v>
@@ -27487,7 +27379,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.160829297984455</v>
+        <v>1.144500795071109</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.208621946185471</v>
@@ -27576,7 +27468,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.164600705316102</v>
+        <v>1.146809729586638</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.126451726570923</v>
@@ -27665,7 +27557,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.16895764743114</v>
+        <v>1.152263911178967</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.21510611854219</v>
@@ -27754,7 +27646,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.170273459478567</v>
+        <v>1.154830388958081</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.143812134423622</v>
@@ -27843,7 +27735,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.175916102623337</v>
+        <v>1.155527513134503</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.120853333152903</v>
@@ -27932,7 +27824,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.183354012773416</v>
+        <v>1.162671224548562</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.229300821976635</v>
@@ -28021,7 +27913,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.181435514139425</v>
+        <v>1.160416534902338</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.194660585843707</v>
@@ -28110,7 +28002,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.174290874753492</v>
+        <v>1.152866786676624</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.223971951474947</v>
@@ -28199,7 +28091,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.152902420533017</v>
+        <v>1.132842877049706</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.224055219044843</v>
@@ -28288,7 +28180,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.14942655442814</v>
+        <v>1.12847389334259</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.210925431322431</v>
@@ -28377,7 +28269,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.139577615828712</v>
+        <v>1.119674720624797</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.25810111405338</v>
@@ -28466,7 +28358,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.138899732826384</v>
+        <v>1.118217574473703</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.084498102231597</v>
@@ -28555,7 +28447,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.136851923499416</v>
+        <v>1.116533603692394</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.084107321434848</v>
@@ -28644,7 +28536,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.14055654954331</v>
+        <v>1.120977506722364</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.107453040520415</v>
@@ -28733,7 +28625,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.143432338529461</v>
+        <v>1.123009625574034</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.215632979390032</v>
@@ -28822,7 +28714,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.152168427886298</v>
+        <v>1.131840373759909</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.13273057115023</v>
@@ -28911,7 +28803,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.145919639253403</v>
+        <v>1.123481331451103</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.184948928281327</v>
@@ -29000,7 +28892,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.139718845984816</v>
+        <v>1.114251123226284</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.155453365797183</v>
@@ -29089,7 +28981,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.12251072134371</v>
+        <v>1.097834978719519</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.167948619788096</v>
@@ -29178,7 +29070,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.122976093315932</v>
+        <v>1.100227008458688</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.975648358680645</v>
@@ -29267,7 +29159,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.121355765078267</v>
+        <v>1.101116482291113</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.01529217270109</v>
@@ -29356,7 +29248,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.122381142853166</v>
+        <v>1.099612799301043</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.949678632846737</v>
@@ -29445,7 +29337,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.125594549399447</v>
+        <v>1.105857087589198</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.869937714884375</v>
@@ -29534,7 +29426,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.132098270843126</v>
+        <v>1.115419819734085</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.070880450200935</v>
@@ -29623,7 +29515,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.132053581344595</v>
+        <v>1.113254857147405</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.088111514479346</v>
@@ -29712,7 +29604,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.138771503375789</v>
+        <v>1.119727233180587</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.125684163781221</v>
@@ -29801,7 +29693,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.133105070722777</v>
+        <v>1.115510127044262</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.090396842978548</v>
@@ -29890,7 +29782,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.133555983884967</v>
+        <v>1.116089553374809</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.059666580989163</v>
@@ -29979,7 +29871,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.136921856427074</v>
+        <v>1.120747128213109</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.063715058011371</v>
@@ -30068,7 +29960,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.154837000607636</v>
+        <v>1.136449723825375</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.936047520606907</v>
@@ -30157,7 +30049,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.146230195598802</v>
+        <v>1.132318814539171</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.984040383580924</v>
@@ -30246,7 +30138,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.159705932436569</v>
+        <v>1.149321573452168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.9344526789841</v>
@@ -30335,7 +30227,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.163997077558237</v>
+        <v>1.154890896108772</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.970132196807275</v>
@@ -30424,7 +30316,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.17153877307862</v>
+        <v>1.16231120618897</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.978253081157856</v>
@@ -30513,7 +30405,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.1772284756377</v>
+        <v>1.163493387188586</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.887398651697484</v>
@@ -30602,7 +30494,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.171154986671179</v>
+        <v>1.162511238620336</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.05879164117309</v>
@@ -30691,7 +30583,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.204269476488912</v>
+        <v>1.19523983782736</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.87550817596236</v>
@@ -30780,7 +30672,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.211912636457283</v>
+        <v>1.199055527384858</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.923090585285551</v>
@@ -30869,7 +30761,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.209022274831798</v>
+        <v>1.196895886609744</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.03492137016036</v>
@@ -30958,7 +30850,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.229693240732845</v>
+        <v>1.222140136423508</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.947804564414842</v>
@@ -31047,7 +30939,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.24083102239703</v>
+        <v>1.233632995823456</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.031573965998818</v>
@@ -31136,7 +31028,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.238180178605208</v>
+        <v>1.229798169037844</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.189906673217815</v>
@@ -31225,7 +31117,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.238050751725791</v>
+        <v>1.222383023740632</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.196262534990726</v>
@@ -31314,7 +31206,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.233798905764187</v>
+        <v>1.225639107869861</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.189031233970962</v>
@@ -31403,7 +31295,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.242193338338257</v>
+        <v>1.23209787608943</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.864359898173367</v>
@@ -31492,7 +31384,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.239363481007857</v>
+        <v>1.225001586564218</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.131835918161343</v>
@@ -31581,7 +31473,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.225506803752398</v>
+        <v>1.211364010654363</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.19537201482087</v>
@@ -31670,7 +31562,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.23100119164752</v>
+        <v>1.215620013248768</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.064718530939178</v>
@@ -31759,7 +31651,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.225362131789945</v>
+        <v>1.212602527532261</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.259900445450106</v>
@@ -31848,7 +31740,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.231470253383924</v>
+        <v>1.216582637325429</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.210117344525532</v>
@@ -31937,7 +31829,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.214833588380633</v>
+        <v>1.203334556272901</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.088557520698072</v>
@@ -32026,7 +31918,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.215381534182448</v>
+        <v>1.205549577801178</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.13551106267459</v>
@@ -32115,7 +32007,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.205721461242058</v>
+        <v>1.196473566051686</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.161732819519485</v>
@@ -32204,7 +32096,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.20447541341035</v>
+        <v>1.192635694553084</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.115677535878394</v>
@@ -32293,7 +32185,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.209888449165462</v>
+        <v>1.200560967330084</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.176589985829537</v>
@@ -32382,7 +32274,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.213887569277268</v>
+        <v>1.204728932256012</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.206530058890651</v>
@@ -32471,7 +32363,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.216656917907027</v>
+        <v>1.207519512921372</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.230127674284282</v>
@@ -32560,7 +32452,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.223555708841899</v>
+        <v>1.216668571093379</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.012340395722456</v>
@@ -32649,7 +32541,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.217392198959622</v>
+        <v>1.205930889372034</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.188509805764348</v>
@@ -32738,7 +32630,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.217800182700485</v>
+        <v>1.2069191040651</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.139098524427941</v>
@@ -32827,7 +32719,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.227809640401125</v>
+        <v>1.216585807696915</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.947810577846853</v>
@@ -33113,7 +33005,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.382842133638698</v>
+        <v>1.412146074972316</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.580675650578258</v>
@@ -33202,7 +33094,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.388847608181446</v>
+        <v>1.416647217829458</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.380793503489699</v>
@@ -33291,7 +33183,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.39366893748552</v>
+        <v>1.421591350878762</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.518709307589469</v>
@@ -33380,7 +33272,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.376788475237404</v>
+        <v>1.405646707359527</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.206227548090641</v>
@@ -33469,7 +33361,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.357834902267118</v>
+        <v>1.384239663270232</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.29943143246954</v>
@@ -33558,7 +33450,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.35715640657227</v>
+        <v>1.385613467734093</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.249367973489723</v>
@@ -33647,7 +33539,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.352455801698712</v>
+        <v>1.379530981758994</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.273637847880015</v>
@@ -33736,7 +33628,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.330763625711918</v>
+        <v>1.35661636036717</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.287012529960799</v>
@@ -33825,7 +33717,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.306982067387657</v>
+        <v>1.331981636305819</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.213914918900111</v>
@@ -33914,7 +33806,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.298139539910975</v>
+        <v>1.320193400769286</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.079006523542775</v>
@@ -34003,7 +33895,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.259593744019823</v>
+        <v>1.277061808024479</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.06563605366201</v>
@@ -34092,7 +33984,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.241168969810375</v>
+        <v>1.255495392381946</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.136198033421541</v>
@@ -34181,7 +34073,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.211303367172216</v>
+        <v>1.222952304591533</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.865357603279937</v>
@@ -34270,7 +34162,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.216819025715349</v>
+        <v>1.227562582806674</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.986311997150217</v>
@@ -34359,7 +34251,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.209539515221428</v>
+        <v>1.219973926171241</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.950238517313452</v>
@@ -34448,7 +34340,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.206350641017768</v>
+        <v>1.218816100319168</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.938434438178562</v>
@@ -34537,7 +34429,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.194446693952127</v>
+        <v>1.202201103562187</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.896762431391323</v>
@@ -34626,7 +34518,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.193924715816738</v>
+        <v>1.199421911457797</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.961268424123394</v>
@@ -34715,7 +34607,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.175949147307211</v>
+        <v>1.177939736055274</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.899504355254208</v>
@@ -34804,7 +34696,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.198680329488702</v>
+        <v>1.200273196926887</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.091101117498912</v>
@@ -34893,7 +34785,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.205781372317018</v>
+        <v>1.209783850216881</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.158843731235116</v>
@@ -34982,7 +34874,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.209914322271445</v>
+        <v>1.209341597039188</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.967222245962327</v>
@@ -35071,7 +34963,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.217712571434179</v>
+        <v>1.220524544494298</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.923820065075765</v>
@@ -35160,7 +35052,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.245254864042835</v>
+        <v>1.247761972967932</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.244476114078162</v>
@@ -35249,7 +35141,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.263445207917705</v>
+        <v>1.268840311064048</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.258534454227423</v>
@@ -35338,7 +35230,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.280513285976384</v>
+        <v>1.288241465574563</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.262611757818747</v>
@@ -35427,7 +35319,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.272078840147527</v>
+        <v>1.279393971396194</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.252668366108065</v>
@@ -35516,7 +35408,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.27159976630365</v>
+        <v>1.278280920387347</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.265051953878268</v>
@@ -35605,7 +35497,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.269647013659049</v>
+        <v>1.277319475860354</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.230082316678027</v>
@@ -35694,7 +35586,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.296421990847352</v>
+        <v>1.303301651472696</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.076162609581363</v>
@@ -35783,7 +35675,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.280969608715504</v>
+        <v>1.285407675203121</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.157663460115262</v>
@@ -35872,7 +35764,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.309096267876436</v>
+        <v>1.315763768051815</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.054695066273564</v>
@@ -35961,7 +35853,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.309317802349668</v>
+        <v>1.317688591619264</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.114456083421869</v>
@@ -36050,7 +35942,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.326685211580858</v>
+        <v>1.334515846561987</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.108688884791777</v>
@@ -36139,7 +36031,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.323146552475973</v>
+        <v>1.321864846050812</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.998813351010903</v>
@@ -36228,7 +36120,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.319795344244788</v>
+        <v>1.324372905781454</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.148918599973343</v>
@@ -36317,7 +36209,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.369197345716589</v>
+        <v>1.374648768765828</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.999714524050551</v>
@@ -36406,7 +36298,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.381958467599983</v>
+        <v>1.379815346089123</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.052548704489741</v>
@@ -36495,7 +36387,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.346143939718035</v>
+        <v>1.359242162530168</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.118100606970665</v>
@@ -36584,7 +36476,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.346247249619262</v>
+        <v>1.356044902043783</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.079969628587651</v>
@@ -36673,7 +36565,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.349421795341591</v>
+        <v>1.356806098453379</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.180324545851434</v>
@@ -36762,7 +36654,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.349959454958847</v>
+        <v>1.354346286874139</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.277868857259338</v>
@@ -36851,7 +36743,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.328155307778359</v>
+        <v>1.327008158341539</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.150752165060297</v>
@@ -36940,7 +36832,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.403200412828487</v>
+        <v>1.413708409909052</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.300395216010097</v>
@@ -37029,7 +36921,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.455687629532093</v>
+        <v>1.467164338553109</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.118161988663981</v>
@@ -37118,7 +37010,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.505423478924225</v>
+        <v>1.506976495570612</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.37451519559661</v>
@@ -37207,7 +37099,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.490156125850997</v>
+        <v>1.494869405967388</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.498473653792428</v>
@@ -37296,7 +37188,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.496056724833133</v>
+        <v>1.495224422662961</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.457943474970081</v>
@@ -37385,7 +37277,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.477966824178494</v>
+        <v>1.482215889694136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.544032274619735</v>
@@ -37474,7 +37366,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.4983554259435</v>
+        <v>1.497073067775458</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.501138344870549</v>
@@ -37563,7 +37455,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.4847241692495</v>
+        <v>1.489709714761473</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.556905417553949</v>
@@ -37652,7 +37544,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.497451546044909</v>
+        <v>1.504520054886903</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.641597237752542</v>
@@ -37741,7 +37633,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.482234140785807</v>
+        <v>1.493763987820059</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.695437790133322</v>
@@ -37830,7 +37722,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.488783838728458</v>
+        <v>1.496579174500662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.592717327373681</v>
@@ -37919,7 +37811,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.497985055628112</v>
+        <v>1.50987670101043</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.708358166430473</v>
@@ -38008,7 +37900,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.508015585341512</v>
+        <v>1.523347230459997</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.720442944877965</v>
@@ -38097,7 +37989,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.512220725785486</v>
+        <v>1.526932911086434</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.648275560988044</v>
@@ -38186,7 +38078,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.535980164164774</v>
+        <v>1.550068173213927</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.539361139265385</v>
@@ -38275,7 +38167,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515005969223407</v>
+        <v>1.530638243885537</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.626608013593901</v>
@@ -38364,7 +38256,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.498309803405338</v>
+        <v>1.513218298759416</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.645247889345668</v>
@@ -38453,7 +38345,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.48475747346631</v>
+        <v>1.506765195079403</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.416015721398794</v>
